--- a/資料庫安裝/Install_MySQL_Database.xlsx
+++ b/資料庫安裝/Install_MySQL_Database.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MySQL 安裝說明" sheetId="4" r:id="rId1"/>
-    <sheet name="MySQL Workbench 相關設置" sheetId="5" r:id="rId2"/>
+    <sheet name="Mac MySQL 安裝說明" sheetId="4" r:id="rId1"/>
+    <sheet name="Windows MySQL 安裝說明" sheetId="6" r:id="rId2"/>
+    <sheet name="MySQL Workbench 相關設置" sheetId="5" r:id="rId3"/>
+    <sheet name="MySQL Workbench 建立資料庫連線" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'MySQL 安裝說明'!$B$2:$D$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Mac MySQL 安裝說明'!$B$2:$D$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Mac Book</t>
   </si>
@@ -347,8 +349,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">64/Docker.dmg
-</t>
+      <t>64/Docker.dmg</t>
     </r>
     <r>
       <rPr>
@@ -357,41 +358,174 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve"># </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dev.mysql.com/downloads/installer/</t>
+  </si>
+  <si>
+    <t>官網下載 MySQL 安裝檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>Windows 系統</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>僅需下載後安裝即可(僅此一步驟)
-# mysql-installer-community-8.0.25.0.msi</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>點選執行</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mysql-installer-community-8.0.26.0.msi</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>設定資料庫管理者密碼 (皆輸入：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">
-https://dev.mysql.com/downloads/installer/</t>
-    </r>
+      <t>root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>開啟 MySQL Workbench</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Local instance MySQL80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 上滑鼠右鍵點選 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Edit Connection...</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">輸入密碼 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>root</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">點選 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Test Connection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 測試資料庫連線是否成功</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試成功後，即可按 Close 關閉儲存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊兩下連線資料庫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schemas 選項空白處，滑鼠右鍵點選 Create Schema…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入 LOCAL_DB 後點選 Apply</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按回到首頁，再次選取 Edit Connection…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Schema 輸入 LOCAL_DB ，後按下 Close 關閉儲存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>點兩下再次連線資料庫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>此時會看到資料庫名稱會變黑加粗體，表示已連線此資料庫成功 !</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
@@ -472,6 +606,32 @@
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -550,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,6 +755,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -784,6 +947,795 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>54310</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="29308" y="597877"/>
+          <a:ext cx="4292202" cy="2596661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>286868</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>34106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="29308" y="3259014"/>
+          <a:ext cx="3915160" cy="2595600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>35168</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>32402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>232116</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2053" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="35168" y="6245633"/>
+          <a:ext cx="9950548" cy="1755951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>35170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>23447</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>10780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2054" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="29308" y="8182708"/>
+          <a:ext cx="4261339" cy="3263934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605392</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>170307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2055" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11629292"/>
+          <a:ext cx="4262992" cy="3265200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605394</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>170308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2056" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="15111046"/>
+          <a:ext cx="4262993" cy="3265200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605394</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>170308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2057" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="18592800"/>
+          <a:ext cx="4262993" cy="3265200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605394</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>170308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2058" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="22074554"/>
+          <a:ext cx="4262993" cy="3265200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605394</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>170308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2059" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="25556308"/>
+          <a:ext cx="4262993" cy="3265200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605394</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>170308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2060" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="29038062"/>
+          <a:ext cx="4262993" cy="3265200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605394</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>170308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2062" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="32713246"/>
+          <a:ext cx="4262993" cy="3265200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605394</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>170308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2064" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="36195000"/>
+          <a:ext cx="4262993" cy="3265200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605394</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>170308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2065" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="39676754"/>
+          <a:ext cx="4262993" cy="3265200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605394</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>170308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2066" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="43158508"/>
+          <a:ext cx="4262993" cy="3265200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605394</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>170308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2067" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="46640262"/>
+          <a:ext cx="4262993" cy="3265200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605392</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>170307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2068" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="50122015"/>
+          <a:ext cx="4262992" cy="3265200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1006,6 +1958,789 @@
         <a:xfrm>
           <a:off x="30480" y="21153120"/>
           <a:ext cx="4770120" cy="1882140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>18855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23447</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5862" y="405717"/>
+          <a:ext cx="1846385" cy="4032639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>23445</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>70339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>287726</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>143608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3074" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23445" y="4906108"/>
+          <a:ext cx="7579481" cy="4328746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>193430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>272658</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>71723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3075" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="9671538"/>
+          <a:ext cx="6368657" cy="4327200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3076" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="14287500"/>
+          <a:ext cx="3939540" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>35171</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449720</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>137763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3077" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="35171" y="16847994"/>
+          <a:ext cx="5291349" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>17585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>421584</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>135831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3078" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20908108"/>
+          <a:ext cx="5298384" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>64477</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>181708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>445477</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>56857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3079" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="64477" y="24940846"/>
+          <a:ext cx="3429000" cy="2196319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>248968</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>64523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3081" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="27660600"/>
+          <a:ext cx="7564167" cy="4320000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>29309</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35895</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>76246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3082" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="29309" y="32508092"/>
+          <a:ext cx="7931386" cy="4320000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46892</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>140678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>351692</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>69167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3083" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="46892" y="37085955"/>
+          <a:ext cx="3352800" cy="1862797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>52754</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>46892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482328</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>165138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3084" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="52754" y="39119907"/>
+          <a:ext cx="4696774" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111369</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>46892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>540943</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>165138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3085" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4988169" y="39119907"/>
+          <a:ext cx="4696774" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>128955</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>41030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>377922</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>105554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3086" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="128955" y="43176092"/>
+          <a:ext cx="7564167" cy="4320000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>52754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338263</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>117277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3087" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="76202" y="48023585"/>
+          <a:ext cx="6358061" cy="4320000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3088" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="52006500"/>
+          <a:ext cx="2735580" cy="1554480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>41031</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47617</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>93830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3089" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="41031" y="54770215"/>
+          <a:ext cx="7931386" cy="4320000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,8 +3052,8 @@
   </sheetPr>
   <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1338,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="157.80000000000001" customHeight="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="7">
         <v>1</v>
@@ -1436,10 +3171,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6">
+      <c r="A1" s="18"/>
+    </row>
+    <row r="2" spans="1:1" ht="15.6">
+      <c r="A2" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.6">
+      <c r="A3" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.6">
+      <c r="A32" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A21:A110"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1470,4 +3244,81 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:A283"/>
+  <sheetViews>
+    <sheetView topLeftCell="A283" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M252" sqref="M252"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/資料庫安裝/Install_MySQL_Database.xlsx
+++ b/資料庫安裝/Install_MySQL_Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mac MySQL 安裝說明" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Mac Book</t>
   </si>
@@ -528,12 +528,16 @@
     <t>此時會看到資料庫名稱會變黑加粗體，表示已連線此資料庫成功 !</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Toggle whether execution of SQL script should continue after failed statements</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
@@ -635,6 +639,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -710,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -758,6 +770,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1930,34 +1945,83 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21107400"/>
+          <a:ext cx="5547360" cy="2484120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>59635</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>26504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="30480" y="21153120"/>
-          <a:ext cx="4770120" cy="1882140"/>
+      <xdr:colOff>44395</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>41744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="59635" y="24397252"/>
+          <a:ext cx="4251960" cy="783866"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3053,7 +3117,7 @@
   <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3173,7 +3237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -3210,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A21:A110"/>
+  <dimension ref="A21:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3238,7 +3302,15 @@
         <v>15</v>
       </c>
     </row>
+    <row r="126" spans="1:1" s="21" customFormat="1" ht="20.399999999999999">
+      <c r="A126" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A126:XFD126"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/資料庫安裝/Install_MySQL_Database.xlsx
+++ b/資料庫安裝/Install_MySQL_Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Mac MySQL 安裝說明" sheetId="4" r:id="rId1"/>
@@ -3116,8 +3116,8 @@
   </sheetPr>
   <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3276,7 +3276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A21:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>

--- a/資料庫安裝/Install_MySQL_Database.xlsx
+++ b/資料庫安裝/Install_MySQL_Database.xlsx
@@ -13,7 +13,7 @@
     <sheet name="MySQL Workbench 建立資料庫連線" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Mac MySQL 安裝說明'!$B$2:$D$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Mac MySQL 安裝說明'!$B$2:$D$10</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Mac Book</t>
   </si>
@@ -361,9 +361,6 @@
       <t/>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://dev.mysql.com/downloads/installer/</t>
   </si>
   <si>
     <t>官網下載 MySQL 安裝檔</t>
@@ -532,12 +529,20 @@
     <t>Toggle whether execution of SQL script should continue after failed statements</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>https://dev.mysql.com/downloads/installer/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新至最新 moc os 系統</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
@@ -647,6 +652,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -719,10 +732,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -768,14 +785,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -860,13 +881,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>172277</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>198783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5300537</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>2376446</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -909,13 +930,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>116542</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>464493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5459506</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>2702410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -945,6 +966,53 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>72888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3528060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>723901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3220278" y="616227"/>
+          <a:ext cx="3375660" cy="651013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
           <a:miter lim="800000"/>
           <a:headEnd/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -1117,7 +1185,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>23447</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>10780</xdr:rowOff>
+      <xdr:rowOff>10781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1166,7 +1234,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>605392</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>170307</xdr:rowOff>
+      <xdr:rowOff>170308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1264,7 +1332,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>605394</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>170308</xdr:rowOff>
+      <xdr:rowOff>170307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1313,7 +1381,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>605394</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>170308</xdr:rowOff>
+      <xdr:rowOff>170307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1509,7 +1577,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>605394</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>170308</xdr:rowOff>
+      <xdr:rowOff>170307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1558,7 +1626,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>605394</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>170308</xdr:rowOff>
+      <xdr:rowOff>170307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1705,7 +1773,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>605392</xdr:colOff>
       <xdr:row>275</xdr:row>
-      <xdr:rowOff>170307</xdr:rowOff>
+      <xdr:rowOff>170308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1942,104 +2010,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="21107400"/>
-          <a:ext cx="5547360" cy="2484120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>59635</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>26504</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>44395</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>41744</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="59635" y="24397252"/>
-          <a:ext cx="4251960" cy="783866"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2805,6 +2775,104 @@
         <a:xfrm>
           <a:off x="41031" y="54770215"/>
           <a:ext cx="7931386" cy="4320000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>184486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="59805277"/>
+          <a:ext cx="5547360" cy="2505655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>10143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="62964646"/>
+          <a:ext cx="4251960" cy="783866"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3114,10 +3182,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK9"/>
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3137,89 +3205,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="90" customHeight="1">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:6" ht="60" customHeight="1">
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="C3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="22"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>4</v>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="55.8" customHeight="1">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="3"/>
       <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="54" customHeight="1">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="55.8" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="199.8" customHeight="1">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="54" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="14"/>
+      <c r="C7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="220.8" customHeight="1">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="199.8" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="14"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="34.200000000000003" customHeight="1">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="220.8" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="34.200000000000003" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3237,7 +3314,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A169"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -3246,22 +3325,58 @@
     </row>
     <row r="2" spans="1:1" ht="15.6">
       <c r="A2" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.6">
-      <c r="A3" s="19" t="s">
-        <v>17</v>
+    <row r="3" spans="1:1">
+      <c r="A3" s="21" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.6">
-      <c r="A32" s="20" t="s">
-        <v>19</v>
+      <c r="A32" s="19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A21:A80"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="21" spans="1:1" ht="18">
+      <c r="A21" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="18">
+      <c r="A50" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="18">
+      <c r="A80" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3272,123 +3387,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A21:A126"/>
-  <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="21" spans="1:1" ht="18">
-      <c r="A21" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="18">
-      <c r="A50" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="18">
-      <c r="A80" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="18">
-      <c r="A110" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" s="21" customFormat="1" ht="20.399999999999999">
-      <c r="A126" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A126:XFD126"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A283"/>
+  <dimension ref="A2:A325"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M252" sqref="M252"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="18">
+      <c r="A309" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" s="20" customFormat="1" ht="20.399999999999999">
+      <c r="A325" s="20" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A325:XFD325"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
